--- a/madetools/core/experiment_result/experiment_Evostar2016_SHAPESHIFTER_20151018093552.967.xlsx
+++ b/madetools/core/experiment_result/experiment_Evostar2016_SHAPESHIFTER_20151018093552.967.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Iteration</t>
   </si>
@@ -130,6 +130,45 @@
   </si>
   <si>
     <t>max number of days</t>
+  </si>
+  <si>
+    <t>allied</t>
+  </si>
+  <si>
+    <t>Trials average</t>
+  </si>
+  <si>
+    <t>conflict</t>
+  </si>
+  <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>herald</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>mentor</t>
+  </si>
+  <si>
+    <t>monomyth</t>
+  </si>
+  <si>
+    <t>shadow</t>
+  </si>
+  <si>
+    <t>shapeshifter</t>
+  </si>
+  <si>
+    <t>trickster</t>
+  </si>
+  <si>
+    <t>[13, 14, 15, 16, 93, 0.6281605, 0.80451536, 0.22565037, 0.7615701, 0.74716806, 0.76564807, 0.77938485, 0.92689097, 0.14431167, 0.43340445, 0.7793324, 0.76463777, 0.45583612, 0.9937589, 0.7931841, 0.0818156, 0.9494911, 0.1136421, 0.9114077, 0.3481366, 0.13110858, 0.82766134, 0.18943131, 0.2272802, 0.93571883, 0.43911743, 0.97607034, 0.42386466, 0.60128254, 0.7592058, 0.011184931, 0.5129012, 0.88355035, 0.13212222, 0.71782345, 0.42249006, 0.42186564, 0.31743723, 0.35517204, 0.25652635, 0.49639916, 0.96851206, 0.42852223, 0.78647727, 0.5814273, 0.15396869, 0.15185505]</t>
   </si>
 </sst>
 </file>
@@ -141,7 +180,7 @@
   </numFmts>
   <fonts count="5">
     <font>
-      <sz val="11"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -249,7 +288,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -796,27 +837,49 @@
       <c r="H1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="J1" s="13"/>
-      <c r="K1" s="11"/>
+      <c r="K1" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="L1" s="13"/>
-      <c r="M1" s="11"/>
+      <c r="M1" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="N1" s="13"/>
-      <c r="O1" s="11"/>
+      <c r="O1" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="P1" s="13"/>
-      <c r="Q1" s="11"/>
+      <c r="Q1" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="R1" s="13"/>
-      <c r="S1" s="11"/>
+      <c r="S1" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="T1" s="13"/>
-      <c r="U1" s="11"/>
+      <c r="U1" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="V1" s="13"/>
-      <c r="W1" s="11"/>
+      <c r="W1" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="X1" s="13"/>
-      <c r="Y1" s="11"/>
+      <c r="Y1" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Z1" s="13"/>
-      <c r="AA1" s="11"/>
+      <c r="AA1" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="AB1" s="13"/>
-      <c r="AC1" s="11"/>
+      <c r="AC1" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="AD1" s="13"/>
       <c r="AE1" s="11"/>
       <c r="AF1" s="13"/>
@@ -871,28 +934,72 @@
         <v>8</v>
       </c>
       <c r="H2" s="14"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="7"/>
+      <c r="I2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="AE2" s="10"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="10"/>
@@ -924,6 +1031,282 @@
       <c r="BG2" s="10"/>
       <c r="BH2" s="7"/>
       <c r="BI2" s="9"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.26666668</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.008888889</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04868645</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.26666668</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.0482607</v>
+      </c>
+      <c r="G3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>42.37041</v>
+      </c>
+      <c r="K3" t="n">
+        <v>317.7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>28.652678</v>
+      </c>
+      <c r="M3" t="n">
+        <v>73.53333</v>
+      </c>
+      <c r="N3" t="n">
+        <v>75.48178</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11.517303</v>
+      </c>
+      <c r="S3" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>11.517303</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2333333</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.0926313</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>11.517303</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.26666668</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.0482607</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>27.066668</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>24.636578</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.26666668</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04025779</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.26666668</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.0482607</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42.37041</v>
+      </c>
+      <c r="K4" t="n">
+        <v>317.7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28.652678</v>
+      </c>
+      <c r="M4" t="n">
+        <v>73.53333</v>
+      </c>
+      <c r="N4" t="n">
+        <v>75.48178</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>11.517303</v>
+      </c>
+      <c r="S4" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>11.517303</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2333333</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.0926313</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>11.517303</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.26666668</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.0482607</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>27.066668</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>24.636578</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.26666668</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.26666668</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.0482607</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>42.37041</v>
+      </c>
+      <c r="K5" t="n">
+        <v>317.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>28.652678</v>
+      </c>
+      <c r="M5" t="n">
+        <v>73.53333</v>
+      </c>
+      <c r="N5" t="n">
+        <v>75.48178</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>11.517303</v>
+      </c>
+      <c r="S5" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>11.517303</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.2333333</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.0926313</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11.517303</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.26666668</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.0482607</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>27.066668</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>24.636578</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -988,36 +1371,36 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
+      <c r="A2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.26666668</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.008888889</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>13</v>
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.26666668</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>67</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
+      <c r="A4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.26666668</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/madetools/core/experiment_result/experiment_Evostar2016_SHAPESHIFTER_20151018093552.967.xlsx
+++ b/madetools/core/experiment_result/experiment_Evostar2016_SHAPESHIFTER_20151018093552.967.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Iteration</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>[13, 14, 15, 16, 93, 0.6281605, 0.80451536, 0.22565037, 0.7615701, 0.74716806, 0.76564807, 0.77938485, 0.92689097, 0.14431167, 0.43340445, 0.7793324, 0.76463777, 0.45583612, 0.9937589, 0.7931841, 0.0818156, 0.9494911, 0.1136421, 0.9114077, 0.3481366, 0.13110858, 0.82766134, 0.18943131, 0.2272802, 0.93571883, 0.43911743, 0.97607034, 0.42386466, 0.60128254, 0.7592058, 0.011184931, 0.5129012, 0.88355035, 0.13212222, 0.71782345, 0.42249006, 0.42186564, 0.31743723, 0.35517204, 0.25652635, 0.49639916, 0.96851206, 0.42852223, 0.78647727, 0.5814273, 0.15396869, 0.15185505]</t>
+  </si>
+  <si>
+    <t>[9, 10, 15, 14, 128, 0.07882309, 0.23540762, 0.6077191, 0.87509125, 0.57467437, 0.17408052, 0.8004514, 0.6979225, 0.033451915, 0.24232545, 0.68438506, 0.8240594, 0.4639135, 0.5343747, 0.7130215, 0.31194702, 0.50155693, 0.49896312, 0.28083193, 0.4807646, 0.37663388, 0.9757447, 0.28397393, 0.986866, 0.553169, 0.28753248, 0.7259604, 0.19067651, 0.90213567, 0.6042983, 0.39408544, 0.27314886, 0.85486674, 0.6418463, 0.37925383, 0.3937522, 0.78596526, 0.5726512, 0.42413598, 0.67200243, 0.032528486, 0.134553, 0.48343706, 0.5637112, 0.73201555, 0.66249174, 0.269676]</t>
   </si>
 </sst>
 </file>
@@ -1308,6 +1311,374 @@
         <v>24.636578</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.067777775</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.37123418</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.7337713</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="n">
+        <v>361.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>135.66621</v>
+      </c>
+      <c r="K6" t="n">
+        <v>358.23334</v>
+      </c>
+      <c r="L6" t="n">
+        <v>19.786243</v>
+      </c>
+      <c r="M6" t="n">
+        <v>130.53334</v>
+      </c>
+      <c r="N6" t="n">
+        <v>53.297302</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.033333335</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.18257418</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7.438715</v>
+      </c>
+      <c r="S6" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7.438715</v>
+      </c>
+      <c r="U6" t="n">
+        <v>16.066668</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7.3152337</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.438715</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6.7337713</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>114.166664</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>26.07692</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0033333334</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.018257419</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.7337713</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="n">
+        <v>361.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>135.66621</v>
+      </c>
+      <c r="K7" t="n">
+        <v>358.23334</v>
+      </c>
+      <c r="L7" t="n">
+        <v>19.786243</v>
+      </c>
+      <c r="M7" t="n">
+        <v>130.53334</v>
+      </c>
+      <c r="N7" t="n">
+        <v>53.297302</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.033333335</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.18257418</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7.438715</v>
+      </c>
+      <c r="S7" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7.438715</v>
+      </c>
+      <c r="U7" t="n">
+        <v>16.066668</v>
+      </c>
+      <c r="V7" t="n">
+        <v>7.3152337</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.438715</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6.7337713</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>114.166664</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>26.07692</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0022222223</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.012171612</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.7337713</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="n">
+        <v>361.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>135.66621</v>
+      </c>
+      <c r="K8" t="n">
+        <v>358.23334</v>
+      </c>
+      <c r="L8" t="n">
+        <v>19.786243</v>
+      </c>
+      <c r="M8" t="n">
+        <v>130.53334</v>
+      </c>
+      <c r="N8" t="n">
+        <v>53.297302</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.033333335</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.18257418</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7.438715</v>
+      </c>
+      <c r="S8" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7.438715</v>
+      </c>
+      <c r="U8" t="n">
+        <v>16.066668</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7.3152337</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>7.438715</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6.7337713</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>114.166664</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>26.07692</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.7337713</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="n">
+        <v>361.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>135.66621</v>
+      </c>
+      <c r="K9" t="n">
+        <v>358.23334</v>
+      </c>
+      <c r="L9" t="n">
+        <v>19.786243</v>
+      </c>
+      <c r="M9" t="n">
+        <v>130.53334</v>
+      </c>
+      <c r="N9" t="n">
+        <v>53.297302</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.033333335</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.18257418</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7.438715</v>
+      </c>
+      <c r="S9" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7.438715</v>
+      </c>
+      <c r="U9" t="n">
+        <v>16.066668</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7.3152337</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7.438715</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6.7337713</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>114.166664</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>26.07692</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
     <mergeCell ref="BG1:BH1"/>
@@ -1403,6 +1774,50 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.067777775</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0033333334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0022222223</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.0333333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
